--- a/python-excel-how-headers-work-finish.xlsx
+++ b/python-excel-how-headers-work-finish.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4125F409-751D-4820-AEB7-F2B8C216BDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700F74D4-B49C-4712-B3A0-A7A7390F156D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{5126D4A5-837A-4E20-A2E6-9D659AA5F7AC}"/>
   </bookViews>
@@ -34,6 +34,58 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
+<file path=xl/pythonScripts.xml><?xml version="1.0" encoding="utf-8"?>
+<pythonScripts xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/pythonscript">
+  <pythonScript>
+    <code>players = xl(%P2%, headers=True)</code>
+  </pythonScript>
+  <pythonScript>
+    <code>players.columns</code>
+  </pythonScript>
+  <pythonScript>
+    <code>points = xl(%P2%, headers=True)
+points.columns</code>
+  </pythonScript>
+</pythonScripts>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -180,6 +232,151 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
+  <a r="6" c="4">
+    <v t="s">name_first</v>
+    <v t="s">name_last</v>
+    <v t="s">birth_city</v>
+    <v t="s">birth_state</v>
+    <v t="s">LeBron</v>
+    <v t="s">James</v>
+    <v t="s">Akron</v>
+    <v t="s" xml:space="preserve"> OH</v>
+    <v t="s">Kareem</v>
+    <v t="s">Abdul-Jabbar</v>
+    <v t="s">New York City</v>
+    <v t="s" xml:space="preserve"> NY</v>
+    <v t="s">Karl</v>
+    <v t="s">Malone</v>
+    <v t="s">Summerfield</v>
+    <v t="s" xml:space="preserve"> LA</v>
+    <v t="s">Kobe</v>
+    <v t="s">Bryant</v>
+    <v t="s">Philadelphia</v>
+    <v t="s" xml:space="preserve"> PA</v>
+    <v t="s">Michael</v>
+    <v t="s">Jordan</v>
+    <v t="s">Brooklyn</v>
+    <v t="s" xml:space="preserve"> NY</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>0</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">  name_first     name_last     birth_city birth_state
+0     LeBron         James          Akron          OH
+1     Kareem  Abdul-Jabbar  New York City          NY
+2       Karl        Malone    Summerfield          LA
+3       Kobe        Bryant   Philade...</v>
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="2">
+    <spb s="0">
+      <v>5</v>
+      <v>4</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="2">
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+    <k n="headers" t="b"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
+</spbStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3CCDC4-FF77-464C-9B42-D2F988350D25}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -593,6 +790,33 @@
         <v>17</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="1.05">
+      <c r="A8" t="e" cm="1" vm="1">
+        <f t="array" ref="A8">_xlfn._xlws.PY(0,1,A1:D6)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="1.05">
+      <c r="A10" t="str" cm="1">
+        <f t="array" ref="A10:A13">_xlfn._xlws.PY(1,0)</f>
+        <v>name_first</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="1.05">
+      <c r="A11" t="str">
+        <v>name_last</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="1.05">
+      <c r="A12" t="str">
+        <v>birth_city</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="1.05">
+      <c r="A13" t="str">
+        <v>birth_state</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -600,7 +824,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B761F577-FD0E-40F3-95F9-496B6C1C6887}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -610,23 +834,30 @@
     <col min="2" max="2" width="6.11328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="1.05">
+    <row r="1" spans="1:4" x14ac:dyDescent="1.05">
       <c r="A1" t="s">
         <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="1.05">
+      <c r="D1" t="str" cm="1">
+        <f t="array" ref="D1:D2">_xlfn._xlws.PY(2,0,A1:B6)</f>
+        <v>player_name</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="1.05">
       <c r="A2" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="1">
         <v>38995</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="1.05">
+      <c r="D2" t="str">
+        <v>points</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="1.05">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -634,7 +865,7 @@
         <v>38387</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="1.05">
+    <row r="4" spans="1:4" x14ac:dyDescent="1.05">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -642,7 +873,7 @@
         <v>36928</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="1.05">
+    <row r="5" spans="1:4" x14ac:dyDescent="1.05">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -650,7 +881,7 @@
         <v>33643</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="1.05">
+    <row r="6" spans="1:4" x14ac:dyDescent="1.05">
       <c r="A6" t="s">
         <v>28</v>
       </c>

--- a/python-excel-how-headers-work-finish.xlsx
+++ b/python-excel-how-headers-work-finish.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27031"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700F74D4-B49C-4712-B3A0-A7A7390F156D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768E5B92-EC72-4C93-80EB-3CF51845F9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{5126D4A5-837A-4E20-A2E6-9D659AA5F7AC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="1" xr2:uid="{5126D4A5-837A-4E20-A2E6-9D659AA5F7AC}"/>
   </bookViews>
   <sheets>
-    <sheet name="names" sheetId="1" r:id="rId1"/>
+    <sheet name="objects" sheetId="3" r:id="rId1"/>
     <sheet name="points" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -36,60 +36,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="2"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
-<file path=xl/pythonScripts.xml><?xml version="1.0" encoding="utf-8"?>
-<pythonScripts xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/pythonscript">
-  <pythonScript>
-    <code>players = xl(%P2%, headers=True)</code>
-  </pythonScript>
-  <pythonScript>
-    <code>players.columns</code>
-  </pythonScript>
-  <pythonScript>
-    <code>points = xl(%P2%, headers=True)
-points.columns</code>
-  </pythonScript>
-</pythonScripts>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>points</t>
   </si>
@@ -109,76 +57,19 @@
     <t>Michael</t>
   </si>
   <si>
-    <t>Abdul-Jabbar</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Malone</t>
-  </si>
-  <si>
-    <t>Bryant</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Akron</t>
-  </si>
-  <si>
-    <t>New York City</t>
-  </si>
-  <si>
-    <t>Summerfield</t>
-  </si>
-  <si>
-    <t>Philadelphia</t>
-  </si>
-  <si>
-    <t>Brooklyn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OH</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PA</t>
-  </si>
-  <si>
-    <t>name_first</t>
-  </si>
-  <si>
-    <t>name_last</t>
-  </si>
-  <si>
-    <t>birth_city</t>
-  </si>
-  <si>
-    <t>birth_state</t>
-  </si>
-  <si>
-    <t>Kareem Abdul-Jabbar</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Karl Malone</t>
-  </si>
-  <si>
-    <t>Kobe Bryant</t>
-  </si>
-  <si>
-    <t>Michael Jordan</t>
-  </si>
-  <si>
-    <t>player_name</t>
+    <t>player</t>
+  </si>
+  <si>
+    <t>Pick a number:</t>
+  </si>
+  <si>
+    <t>Multiply it by two:</t>
+  </si>
+  <si>
+    <t>Take the square root:</t>
+  </si>
+  <si>
+    <t>Add one for final answer:</t>
   </si>
 </sst>
 </file>
@@ -214,9 +105,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -232,151 +122,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
-<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
-  <a r="6" c="4">
-    <v t="s">name_first</v>
-    <v t="s">name_last</v>
-    <v t="s">birth_city</v>
-    <v t="s">birth_state</v>
-    <v t="s">LeBron</v>
-    <v t="s">James</v>
-    <v t="s">Akron</v>
-    <v t="s" xml:space="preserve"> OH</v>
-    <v t="s">Kareem</v>
-    <v t="s">Abdul-Jabbar</v>
-    <v t="s">New York City</v>
-    <v t="s" xml:space="preserve"> NY</v>
-    <v t="s">Karl</v>
-    <v t="s">Malone</v>
-    <v t="s">Summerfield</v>
-    <v t="s" xml:space="preserve"> LA</v>
-    <v t="s">Kobe</v>
-    <v t="s">Bryant</v>
-    <v t="s">Philadelphia</v>
-    <v t="s" xml:space="preserve"> PA</v>
-    <v t="s">Michael</v>
-    <v t="s">Jordan</v>
-    <v t="s">Brooklyn</v>
-    <v t="s" xml:space="preserve"> NY</v>
-  </a>
-</arrayData>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
-  <rv s="0">
-    <v>0</v>
-  </rv>
-  <rv s="1">
-    <v>DataFrame</v>
-    <v>1</v>
-    <v>0</v>
-  </rv>
-  <rv s="2">
-    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
-    <v>DataFrame</v>
-    <v xml:space="preserve">  name_first     name_last     birth_city birth_state
-0     LeBron         James          Akron          OH
-1     Kareem  Abdul-Jabbar  New York City          NY
-2       Karl        Malone    Summerfield          LA
-3       Kobe        Bryant   Philade...</v>
-    <v>1</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
-  <s t="_array">
-    <k n="array" t="a"/>
-  </s>
-  <s t="_entity">
-    <k n="_DisplayString" t="s"/>
-    <k n="_ViewInfo" t="spb"/>
-    <k n="arrayPreview" t="r"/>
-  </s>
-  <s t="_python">
-    <k n="Python_type" t="s"/>
-    <k n="Python_typeName" t="s"/>
-    <k n="Python_str" t="s"/>
-    <k n="preview" t="r"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
-<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbData count="2">
-    <spb s="0">
-      <v>5</v>
-      <v>4</v>
-      <v>DataFrame</v>
-      <v>arrayPreview</v>
-      <v>1</v>
-    </spb>
-    <spb s="1">
-      <v>0</v>
-    </spb>
-  </spbData>
-</supportingPropertyBags>
-</file>
-
-<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="2">
-  <s>
-    <k n="drw" t="i"/>
-    <k n="dcol" t="i"/>
-    <k n="name" t="s"/>
-    <k n="array" t="s"/>
-    <k n="headers" t="b"/>
-  </s>
-  <s>
-    <k n="ArrayCardInfo" t="spb"/>
-  </s>
-</spbStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -695,126 +440,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3CCDC4-FF77-464C-9B42-D2F988350D25}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28BE69D-65E3-4038-B2FE-8DE701181C49}">
+  <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="B2:D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.15" x14ac:dyDescent="1.05"/>
   <cols>
-    <col min="2" max="2" width="10.8828125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.37109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.76953125" customWidth="1"/>
+    <col min="2" max="2" width="19.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="1.05">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="1.05">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
+    <row r="2" spans="2:4" x14ac:dyDescent="1.05">
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="1.05">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="1.05">
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="1.05">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <f>C2 * 2</f>
+        <v>20</v>
+      </c>
+      <c r="D3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C3)</f>
+        <v>=C2 * 2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="1.05">
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="1.05">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <f>SQRT(C3)</f>
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="D4" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C4)</f>
+        <v>=SQRT(C3)</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="1.05">
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="1.05">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="1.05">
-      <c r="A8" t="e" cm="1" vm="1">
-        <f t="array" ref="A8">_xlfn._xlws.PY(0,1,A1:D6)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="1.05">
-      <c r="A10" t="str" cm="1">
-        <f t="array" ref="A10:A13">_xlfn._xlws.PY(1,0)</f>
-        <v>name_first</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="1.05">
-      <c r="A11" t="str">
-        <v>name_last</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="1.05">
-      <c r="A12" t="str">
-        <v>birth_city</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="1.05">
-      <c r="A13" t="str">
-        <v>birth_state</v>
+      <c r="C5">
+        <f>C4 + 1</f>
+        <v>5.4721359549995796</v>
+      </c>
+      <c r="D5" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C5)</f>
+        <v>=C4 + 1</v>
       </c>
     </row>
   </sheetData>
@@ -823,69 +508,63 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B761F577-FD0E-40F3-95F9-496B6C1C6887}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE53D4D-F836-48E9-BE22-384F79E2DD3A}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="A1:B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.15" x14ac:dyDescent="1.05"/>
   <cols>
-    <col min="1" max="1" width="17.33984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.11328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="1.05">
+    <row r="1" spans="1:2" x14ac:dyDescent="1.05">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="str" cm="1">
-        <f t="array" ref="D1:D2">_xlfn._xlws.PY(2,0,A1:B6)</f>
-        <v>player_name</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="1.05">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="1.05">
       <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1">
-        <v>38995</v>
-      </c>
-      <c r="D2" t="str">
-        <v>points</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="1.05">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>38923</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="1.05">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>38387</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="1.05">
+    <row r="4" spans="1:2" x14ac:dyDescent="1.05">
       <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>36928</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="1.05">
+    <row r="5" spans="1:2" x14ac:dyDescent="1.05">
       <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>33643</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="1.05">
+    <row r="6" spans="1:2" x14ac:dyDescent="1.05">
       <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>32292</v>
       </c>
     </row>

--- a/python-excel-how-headers-work-finish.xlsx
+++ b/python-excel-how-headers-work-finish.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768E5B92-EC72-4C93-80EB-3CF51845F9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C46890F-E058-4FCD-8D25-0CE657FB4014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="1" xr2:uid="{5126D4A5-837A-4E20-A2E6-9D659AA5F7AC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{5126D4A5-837A-4E20-A2E6-9D659AA5F7AC}"/>
   </bookViews>
   <sheets>
-    <sheet name="objects" sheetId="3" r:id="rId1"/>
-    <sheet name="points" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,11 +35,53 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
+<file path=xl/pythonScripts.xml><?xml version="1.0" encoding="utf-8"?>
+<pythonScripts xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/pythonscript">
+  <pythonScript>
+    <code>players = xl(%P2%, headers=True)</code>
+  </pythonScript>
+</pythonScripts>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>points</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>LeBron</t>
   </si>
@@ -57,19 +98,58 @@
     <t>Michael</t>
   </si>
   <si>
-    <t>player</t>
-  </si>
-  <si>
-    <t>Pick a number:</t>
-  </si>
-  <si>
-    <t>Multiply it by two:</t>
-  </si>
-  <si>
-    <t>Take the square root:</t>
-  </si>
-  <si>
-    <t>Add one for final answer:</t>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Place of Birth</t>
+  </si>
+  <si>
+    <t>Country of Birth</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Akron</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OH</t>
+  </si>
+  <si>
+    <t>Abdul-Jabbar</t>
+  </si>
+  <si>
+    <t>New York City</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY</t>
+  </si>
+  <si>
+    <t>Malone</t>
+  </si>
+  <si>
+    <t>Summerfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LA</t>
+  </si>
+  <si>
+    <t>Bryant</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PA</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Brooklyn</t>
   </si>
 </sst>
 </file>
@@ -122,6 +202,164 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
+  <a r="6" c="4">
+    <v t="s">First Name</v>
+    <v t="s">Last Name</v>
+    <v t="s">Place of Birth</v>
+    <v t="s">Country of Birth</v>
+    <v t="s">LeBron</v>
+    <v t="s">James</v>
+    <v t="s">Akron</v>
+    <v t="s" xml:space="preserve"> OH</v>
+    <v t="s">Kareem</v>
+    <v t="s">Abdul-Jabbar</v>
+    <v t="s">New York City</v>
+    <v t="s" xml:space="preserve"> NY</v>
+    <v t="s">Karl</v>
+    <v t="s">Malone</v>
+    <v t="s">Summerfield</v>
+    <v t="s" xml:space="preserve"> LA</v>
+    <v t="s">Kobe</v>
+    <v t="s">Bryant</v>
+    <v t="s">Philadelphia</v>
+    <v t="s" xml:space="preserve"> PA</v>
+    <v t="s">Michael</v>
+    <v t="s">Jordan</v>
+    <v t="s">Brooklyn</v>
+    <v t="s" xml:space="preserve"> NY</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>0</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">  First Name     Last Name Place of Birth Country of Birth
+0     LeBron         James          Akron               OH
+1     Kareem  Abdul-Jabbar  New York City               NY
+2       Karl        Malone    Summerfield               LA
+3       Kobe    ...</v>
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="2">
+    <spb s="0">
+      <v>5</v>
+      <v>4</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="2">
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+    <k n="headers" t="b"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85734E80-97A3-458C-B40B-8FADF8FED7B0}" name="Table1" displayName="Table1" ref="A1:D6" totalsRowShown="0">
+  <autoFilter ref="A1:D6" xr:uid="{85734E80-97A3-458C-B40B-8FADF8FED7B0}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A0638789-FA71-49E7-A141-A1AA26182C13}" name="First Name"/>
+    <tableColumn id="2" xr3:uid="{87C61E60-6A97-46C6-B154-BCCBD42A6F4C}" name="Last Name"/>
+    <tableColumn id="3" xr3:uid="{3D4697AD-7BEF-486A-8F3E-648063CC41B6}" name="Place of Birth"/>
+    <tableColumn id="4" xr3:uid="{55408BC8-C783-40F7-A848-BF6B5F4284AD}" name="Country of Birth"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,134 +679,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28BE69D-65E3-4038-B2FE-8DE701181C49}">
-  <dimension ref="B2:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="B2:D6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.15" x14ac:dyDescent="1.05"/>
   <cols>
-    <col min="1" max="1" width="2.76953125" customWidth="1"/>
-    <col min="2" max="2" width="19.9140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.94140625" customWidth="1"/>
+    <col min="2" max="2" width="10.8828125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.94140625" customWidth="1"/>
+    <col min="4" max="4" width="13.8828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="1.05">
+    <row r="1" spans="1:4" x14ac:dyDescent="1.05">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="1.05">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="1.05">
+    <row r="3" spans="1:4" x14ac:dyDescent="1.05">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <f>C2 * 2</f>
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="1.05">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="1.05">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(C3)</f>
-        <v>=C2 * 2</v>
-      </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="1.05">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <f>SQRT(C3)</f>
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="D4" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(C4)</f>
-        <v>=SQRT(C3)</v>
+    <row r="6" spans="1:4" x14ac:dyDescent="1.05">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="1.05">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <f>C4 + 1</f>
-        <v>5.4721359549995796</v>
-      </c>
-      <c r="D5" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(C5)</f>
-        <v>=C4 + 1</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="1.05">
+      <c r="A8" t="e" cm="1" vm="1">
+        <f t="array" ref="A8">_xlfn._xlws.PY(0,1,Table1[#All])</f>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE53D4D-F836-48E9-BE22-384F79E2DD3A}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="A1:B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="34.15" x14ac:dyDescent="1.05"/>
-  <cols>
-    <col min="1" max="1" width="6.796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="1.05">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="1.05">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>38923</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="1.05">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>38387</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="1.05">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>36928</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="1.05">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>33643</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="1.05">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>32292</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>